--- a/stripped/S60008.mes.bin.xlsx
+++ b/stripped/S60008.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FFFE1-1FAA-443E-AF11-461C0D1FA01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CC1ADB-BDF0-43E9-960B-BEECE7ABA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60008.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S60008.mes.bin.xlsx
+++ b/stripped/S60008.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CC1ADB-BDF0-43E9-960B-BEECE7ABA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A72225-BF1F-49D5-BDB7-C158064A5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60008.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>Status</t>
   </si>
@@ -293,7 +293,7 @@
     <t>149</t>
   </si>
   <si>
-    <t>I intentionally mock the turn of phrase Yayoi-san uses when\ntalking about Yuki-san.&lt;pause&gt;</t>
+    <t>I intentionally mock the turn of phrase Yayoi-san uses when\ntalking about Yuki.&lt;pause&gt;</t>
   </si>
   <si>
     <t>151</t>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>191</t>
+  </si>
+  <si>
+    <t>^So I've been told...^</t>
   </si>
   <si>
     <t>193</t>
@@ -865,7 +868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2355,7 +2360,9 @@
         <v>18</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -2364,7 +2371,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2378,7 +2385,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
@@ -2394,7 +2401,7 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2408,7 +2415,7 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2422,7 +2429,7 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2436,7 +2443,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -2450,7 +2457,7 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2464,7 +2471,7 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -2478,7 +2485,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2492,7 +2499,7 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -2506,7 +2513,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2520,7 +2527,7 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -2534,7 +2541,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2548,13 +2555,13 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -2564,7 +2571,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2578,7 +2585,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -2592,7 +2599,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2606,7 +2613,7 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -2620,7 +2627,7 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2634,7 +2641,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -2648,7 +2655,7 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2662,7 +2669,7 @@
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
@@ -2678,7 +2685,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2692,7 +2699,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -2706,7 +2713,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2720,7 +2727,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -2734,7 +2741,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2748,7 +2755,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
